--- a/public/format/formatnilai.xlsx
+++ b/public/format/formatnilai.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NO</t>
   </si>
   <si>
     <t>NISN</t>
+  </si>
+  <si>
+    <t>NAMA SISWA</t>
   </si>
   <si>
     <t>AF TP 1</t>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>AS NONTES</t>
+  </si>
+  <si>
+    <t>Samsul</t>
   </si>
 </sst>
 </file>
@@ -980,21 +986,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="14.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="13.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="34.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="9.57142857142857"/>
+    <col min="3" max="3" width="13.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="14.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="13.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="34.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="9.57142857142857"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,30 +1020,36 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>4234234</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>33</v>
-      </c>
       <c r="E2">
+        <v>34</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="33"/>
+    <hyperlink ref="E2" r:id="rId1" display="34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
